--- a/Return_bar_chart.xlsx
+++ b/Return_bar_chart.xlsx
@@ -5,25 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UofT\Risk Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCC50B-7CA8-4B0B-AECE-EB94E5BB0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D080B1D-BEF7-4A40-95D5-E183C884B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2295" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="each return since inception" sheetId="2" r:id="rId2"/>
     <sheet name="individual asset annual return" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Port &amp; Benchmark Fiscal return" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Port &amp; Benchmark Fiscal return'!$B$1:$B$365</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
   <si>
     <t>SPY_P</t>
   </si>
@@ -381,6 +396,42 @@
   <si>
     <t>Benchmark</t>
   </si>
+  <si>
+    <t>in cad</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>adj rebalance</t>
+  </si>
+  <si>
+    <t>return comb</t>
+  </si>
+  <si>
+    <t>port growth</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>portfolio growth</t>
+  </si>
+  <si>
+    <t>Portfolio Annual return</t>
+  </si>
+  <si>
+    <t>Benchmark Annual return</t>
+  </si>
+  <si>
+    <t>2021 ytd</t>
+  </si>
+  <si>
+    <t>Asset growth+1</t>
+  </si>
+  <si>
+    <t>Asset return since inception</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -453,12 +504,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -471,10 +531,23 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,7 +565,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -599,9 +672,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'each return since inception'!$B$1:$S$1</c:f>
+              <c:f>'each return since inception'!$B$1:$U$1</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>SPY</c:v>
                 </c:pt>
@@ -655,16 +728,22 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>XRE.TO</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Portfolio</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Benchmark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'each return since inception'!$B$2:$S$2</c:f>
+              <c:f>'each return since inception'!$B$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.280720757697043</c:v>
                 </c:pt>
@@ -718,6 +797,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.52806033445666511</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34680716744366413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26598713668688312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +981,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2870,6 +2955,455 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Portfolio &amp; Benchmark Fiscal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Year Annual return</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio Annual return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$S$8:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 ytd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$T$8:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10202244039139874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7077683538695059E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10511606775475302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4159718642053747E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9539187640967451E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0583171312454027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B412-45B3-8F63-43BB151EF2F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benchmark Annual return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$S$8:$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 ytd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Port &amp; Benchmark Fiscal return'!$U$8:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9339585894845994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.072812571445783E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2245176080645015E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6852718475106978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21764432871739414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1943339999999978E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B412-45B3-8F63-43BB151EF2F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="913792272"/>
+        <c:axId val="913790992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="913792272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913790992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="913790992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913792272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2911,6 +3445,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3956,6 +4530,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4001,16 +5078,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>516254</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>77151</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>259079</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449579</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4038,8 +5115,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE0F2B9-38B3-4234-BCB5-4093FC3E4FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4363,10 +5483,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:W71"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
@@ -9929,18 +11049,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C4D9F3-AC32-48F9-BF83-022807B230DE}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="B1" t="s">
         <v>96</v>
       </c>
@@ -9995,8 +11115,14 @@
       <c r="S1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -10053,6 +11179,12 @@
       </c>
       <c r="S2">
         <v>0.52806033445666511</v>
+      </c>
+      <c r="T2">
+        <v>0.34680716744366413</v>
+      </c>
+      <c r="U2">
+        <v>0.26598713668688312</v>
       </c>
     </row>
   </sheetData>
@@ -10065,11 +11197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AE8261-9612-451E-BE91-BF5953B9D16C}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
@@ -10982,7 +12114,7 @@
       <selection activeCell="B1" sqref="B1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -11169,4 +12301,1790 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9E11A-73FE-4644-A77D-2F71AE0DB81E}">
+  <dimension ref="A1:Y64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>50530.643926005192</v>
+      </c>
+      <c r="C3">
+        <v>52117.749569164429</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>102648.39349516961</v>
+      </c>
+      <c r="F3">
+        <f>(D3-D2)/D2</f>
+        <v>2.6483934951696136E-2</v>
+      </c>
+      <c r="G3">
+        <f>G2*(1+F3)</f>
+        <v>1.0264839349516961</v>
+      </c>
+      <c r="I3">
+        <v>2016</v>
+      </c>
+      <c r="J3">
+        <v>1.1020224403913987</v>
+      </c>
+      <c r="K3">
+        <v>0.10202244039139874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>51497.193910794478</v>
+      </c>
+      <c r="C4">
+        <v>52506.260371076918</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D64" si="0">B4+C4</f>
+        <v>104003.4542818714</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F64" si="1">(D4-D3)/D3</f>
+        <v>1.3200993610928245E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G64" si="2">G3*(1+F4)</f>
+        <v>1.0400345428187139</v>
+      </c>
+      <c r="I4">
+        <v>2017</v>
+      </c>
+      <c r="J4">
+        <v>1.1001404413424443</v>
+      </c>
+      <c r="K4">
+        <v>-1.7077683538695059E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>52297.453381665116</v>
+      </c>
+      <c r="C5">
+        <v>54169.165904705238</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>106466.61928637035</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.368349226000948E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.0646661928637036</v>
+      </c>
+      <c r="I5">
+        <v>2018</v>
+      </c>
+      <c r="J5">
+        <v>1.2157828785143405</v>
+      </c>
+      <c r="K5">
+        <v>0.10511606775475302</v>
+      </c>
+      <c r="X5">
+        <v>2011</v>
+      </c>
+      <c r="Y5">
+        <v>-4.1063896098259334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>52022.513864235523</v>
+      </c>
+      <c r="C6">
+        <v>53907.893937257024</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>105930.40780149255</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-5.0364282107569925E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.0593040780149257</v>
+      </c>
+      <c r="I6">
+        <v>2019</v>
+      </c>
+      <c r="J6">
+        <v>1.2451558507890732</v>
+      </c>
+      <c r="K6">
+        <v>2.4159718642053747E-2</v>
+      </c>
+      <c r="X6">
+        <v>2012</v>
+      </c>
+      <c r="Y6">
+        <v>4.9364886308874256E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>52159.887851957843</v>
+      </c>
+      <c r="C7">
+        <v>54231.468923638742</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>106391.35677559659</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.3514320738558552E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.0639135677559661</v>
+      </c>
+      <c r="I7">
+        <v>2020</v>
+      </c>
+      <c r="J7">
+        <v>1.3068398601235616</v>
+      </c>
+      <c r="K7">
+        <v>4.9539187640967451E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>116</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7">
+        <v>2013</v>
+      </c>
+      <c r="Y7">
+        <v>6.0049798068072757E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5">
+        <v>56499.400852432147</v>
+      </c>
+      <c r="C8" s="5">
+        <v>59497.349195912248</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>115996.7500483444</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8-10000</f>
+        <v>105996.7500483444</v>
+      </c>
+      <c r="F8" s="5">
+        <f>(E8-D7)/D7</f>
+        <v>-3.7090111378549782E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.0599675004834443</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3.0583171312454027E-2</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="S8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.10202244039139874</v>
+      </c>
+      <c r="U8" s="5">
+        <v>4.9339585894845994E-2</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2014</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>4.8293342618610957E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>56039.960549128882</v>
+      </c>
+      <c r="C9">
+        <v>58724.816123615448</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>114764.77667274434</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-1.0620757694388937E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.0487098424968826</v>
+      </c>
+      <c r="S9">
+        <v>2017</v>
+      </c>
+      <c r="T9">
+        <v>-1.7077683538695059E-3</v>
+      </c>
+      <c r="U9">
+        <v>4.072812571445783E-2</v>
+      </c>
+      <c r="X9">
+        <v>2015</v>
+      </c>
+      <c r="Y9">
+        <v>-5.9100708583143535E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>56305.325270616129</v>
+      </c>
+      <c r="C10">
+        <v>59213.778654897498</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>115519.10392551363</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.572811577199157E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.055602814690769</v>
+      </c>
+      <c r="S10">
+        <v>2018</v>
+      </c>
+      <c r="T10">
+        <v>0.10511606775475302</v>
+      </c>
+      <c r="U10">
+        <v>-1.2245176080645015E-2</v>
+      </c>
+      <c r="X10">
+        <v>2016</v>
+      </c>
+      <c r="Y10">
+        <v>4.9339585894845994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>56304.872521411409</v>
+      </c>
+      <c r="C11">
+        <v>58592.60599103594</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>114897.47851244736</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-5.3811481559543021E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.0499224595510757</v>
+      </c>
+      <c r="S11">
+        <v>2019</v>
+      </c>
+      <c r="T11">
+        <v>2.4159718642053747E-2</v>
+      </c>
+      <c r="U11">
+        <v>-5.6852718475106978E-2</v>
+      </c>
+      <c r="X11">
+        <v>2017</v>
+      </c>
+      <c r="Y11">
+        <v>4.072812571445783E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>57222.607355115928</v>
+      </c>
+      <c r="C12">
+        <v>59900.071481580278</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>117122.6788366962</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.9366833398417674E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.0702561329064582</v>
+      </c>
+      <c r="S12">
+        <v>2020</v>
+      </c>
+      <c r="T12">
+        <v>4.9539187640967451E-2</v>
+      </c>
+      <c r="U12">
+        <v>0.21764432871739414</v>
+      </c>
+      <c r="X12">
+        <v>2018</v>
+      </c>
+      <c r="Y12">
+        <v>-1.2245176080645015E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>57565.809101207728</v>
+      </c>
+      <c r="C13">
+        <v>60417.848023881837</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>117983.65712508956</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.3510809088803818E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.078123672332679</v>
+      </c>
+      <c r="S13" t="s">
+        <v>128</v>
+      </c>
+      <c r="T13">
+        <v>3.0583171312454027E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.1943339999999978E-2</v>
+      </c>
+      <c r="X13">
+        <v>2019</v>
+      </c>
+      <c r="Y13">
+        <v>-5.6852718475106978E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="5" customFormat="1">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <v>63309.199675213436</v>
+      </c>
+      <c r="C14" s="5">
+        <v>67289.801244573886</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>130599.00091978733</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14-10000</f>
+        <v>120599.00091978733</v>
+      </c>
+      <c r="F14" s="5">
+        <f>(E14-D13)/D13</f>
+        <v>2.2167000569620454E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.1020224403913987</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.1020224403913987</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="5">
+        <f>(1+T8)*(1+T9)*(1+T10)*(1+T11)*(1+T12)*(1+T13)</f>
+        <v>1.3468071674436641</v>
+      </c>
+      <c r="U14" s="5">
+        <f>(1+U8)*(1+U9)*(1+U10)*(1+U11)*(1+U12)*(1+U13)</f>
+        <v>1.2659871366868831</v>
+      </c>
+      <c r="X14" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0.21764432871739414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>63699.932283755123</v>
+      </c>
+      <c r="C15">
+        <v>66973.150849643134</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>130673.08313339826</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.6724946660530087E-4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.1026475620328979</v>
+      </c>
+      <c r="S15" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15">
+        <f>T14-1</f>
+        <v>0.34680716744366413</v>
+      </c>
+      <c r="U15">
+        <f>U14-1</f>
+        <v>0.26598713668688312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>62586.0330049845</v>
+      </c>
+      <c r="C16">
+        <v>64450.082849256461</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>127036.11585424095</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-2.7832566523623647E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.071958050410506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>61987.622874885747</v>
+      </c>
+      <c r="C17">
+        <v>62976.672534646241</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>124964.29540953199</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-1.6308908933315762E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.0544755841860263</v>
+      </c>
+      <c r="W17">
+        <v>2011</v>
+      </c>
+      <c r="Y17">
+        <v>-4.1063896098259334E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>62708.141737826001</v>
+      </c>
+      <c r="C18">
+        <v>64360.015090935914</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>127068.15682876192</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.683570024810023E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.0722284190403226</v>
+      </c>
+      <c r="W18">
+        <v>2012</v>
+      </c>
+      <c r="Y18">
+        <v>4.9364886308874256E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>62633.491307027267</v>
+      </c>
+      <c r="C19">
+        <v>63070.481081503094</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>125703.97238853035</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-1.0735848180043629E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.0607171375191775</v>
+      </c>
+      <c r="W19">
+        <v>2013</v>
+      </c>
+      <c r="Y19">
+        <v>6.0049798068072757E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5">
+        <v>68936.110951136623</v>
+      </c>
+      <c r="C20" s="5">
+        <v>70800.296410733616</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>139736.40736187022</v>
+      </c>
+      <c r="E20" s="5">
+        <f>D20-10000</f>
+        <v>129736.40736187022</v>
+      </c>
+      <c r="F20" s="5">
+        <f>(E20-D19)/D19</f>
+        <v>3.2078818964258946E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1.0947436905459422</v>
+      </c>
+      <c r="W20">
+        <v>2014</v>
+      </c>
+      <c r="X20"/>
+      <c r="Y20">
+        <v>4.8293342618610957E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>69838.021024418398</v>
+      </c>
+      <c r="C21">
+        <v>71538.120584300123</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>141376.14160871852</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.173448121220075E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1.1075899398148288</v>
+      </c>
+      <c r="W21">
+        <v>2015</v>
+      </c>
+      <c r="Y21">
+        <v>-5.9100708583143535E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>69962.760062418762</v>
+      </c>
+      <c r="C22">
+        <v>70052.591101448023</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>140015.35116386678</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-9.6253188788950374E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1.0969290334570549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>70132.283075105093</v>
+      </c>
+      <c r="C23">
+        <v>69572.259031706228</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>139704.54210681131</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-2.2198212872510158E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1.0944940470379831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>69462.090990326193</v>
+      </c>
+      <c r="C24">
+        <v>69749.922082362798</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>139212.01307268901</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-3.525504802454719E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1.0906354030188927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>70042.34336468589</v>
+      </c>
+      <c r="C25">
+        <v>70779.229735485933</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>140821.57310017181</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.1561933427701943E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1.103245256942492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="5" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5">
+        <v>74935.719522841799</v>
+      </c>
+      <c r="C26" s="5">
+        <v>75489.545490589284</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>150425.26501343108</v>
+      </c>
+      <c r="E26" s="5">
+        <f>D26-10000</f>
+        <v>140425.26501343108</v>
+      </c>
+      <c r="F26" s="5">
+        <f>(E26-D25)/D25</f>
+        <v>-2.8142569211239881E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1.1001404413424443</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1.1001404413424443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>76306.514593322761</v>
+      </c>
+      <c r="C27">
+        <v>76626.395482644133</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>152932.91007596691</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.6670371578284576E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1.1184801912879208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>76653.709281315561</v>
+      </c>
+      <c r="C28">
+        <v>78993.079560568454</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>155646.788841884</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.7745551069217328E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1.1383282386423283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>77122.413665960819</v>
+      </c>
+      <c r="C29">
+        <v>78773.761240668668</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>155896.17490662949</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.602256407607793E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1.1401521323566537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>77930.950207665621</v>
+      </c>
+      <c r="C30">
+        <v>79193.878553656192</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>157124.82876132181</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>7.8812315659970503E-3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1.1491379353322217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>77422.430393286952</v>
+      </c>
+      <c r="C31">
+        <v>77775.947779592927</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>155198.37817287986</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>-1.2260637632059382E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>1.1350487715178605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="5" customFormat="1">
+      <c r="A32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5">
+        <v>80429.881722689126</v>
+      </c>
+      <c r="C32" s="5">
+        <v>81764.912594605208</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>162194.79431729432</v>
+      </c>
+      <c r="E32" s="5">
+        <f>D32-10000</f>
+        <v>152194.79431729432</v>
+      </c>
+      <c r="F32" s="5">
+        <f>(E32-D31)/D31</f>
+        <v>-1.9353190999455983E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>1.1130819558489775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>81199.680682709499</v>
+      </c>
+      <c r="C33">
+        <v>84095.876734062462</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>165295.55741677195</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1.9117525396109471E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>1.1343613284078717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>79514.125345079679</v>
+      </c>
+      <c r="C34">
+        <v>83347.828182357713</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>162861.95352743741</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>-1.472274226462429E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>1.1176604189347659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>83029.254314889957</v>
+      </c>
+      <c r="C35">
+        <v>84961.687438435445</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>167990.9417533254</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3.1492857078027819E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1.1528587387700471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <v>84259.326453947288</v>
+      </c>
+      <c r="C36">
+        <v>85595.366523566307</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>169854.69297751359</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1.1094355473790295E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1.1656489634290277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>86797.233328953778</v>
+      </c>
+      <c r="C37">
+        <v>88663.985717772885</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>175461.21904672665</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3.3007778418905863E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>1.2041244461281202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1">
+      <c r="A38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="5">
+        <v>91751.524850134228</v>
+      </c>
+      <c r="C38" s="5">
+        <v>95408.524218055521</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>187160.04906818975</v>
+      </c>
+      <c r="E38" s="5">
+        <f>D38-10000</f>
+        <v>177160.04906818975</v>
+      </c>
+      <c r="F38" s="5">
+        <f>(E38-D37)/D37</f>
+        <v>9.6820826316651228E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1.2157828785143405</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1.2157828785143405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <v>91943.156930164958</v>
+      </c>
+      <c r="C39">
+        <v>95848.346876040465</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>187791.50380620541</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3.3738756810519667E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>1.2198847788015994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40">
+        <v>93097.381904104957</v>
+      </c>
+      <c r="C40">
+        <v>94042.514777546225</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>187139.89668165118</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-3.4698434771929993E-3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>1.2156519695589476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>93956.655792415346</v>
+      </c>
+      <c r="C41">
+        <v>95297.689309634516</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>189254.34510204988</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.1298758083615064E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1.2293873270768643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42">
+        <v>95580.683786144204</v>
+      </c>
+      <c r="C42">
+        <v>98112.95649003594</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>193693.64027618014</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2.3456767514302024E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1.2582247797931354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>96111.421102611421</v>
+      </c>
+      <c r="C43">
+        <v>97432.60651939988</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>193544.02762201132</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-7.7241903221758525E-4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>1.2572529030264155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="5" customFormat="1">
+      <c r="A44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="5">
+        <v>100988.76781918629</v>
+      </c>
+      <c r="C44" s="5">
+        <v>103243.6858478291</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>204232.45366701539</v>
+      </c>
+      <c r="E44" s="5">
+        <f>D44-10000</f>
+        <v>194232.45366701539</v>
+      </c>
+      <c r="F44" s="5">
+        <f>(E44-D43)/D43</f>
+        <v>3.5569480157174407E-3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>1.2617248862450903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>102302.73702831649</v>
+      </c>
+      <c r="C45">
+        <v>104257.86892387201</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>206560.60595218849</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1.1399521688991526E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>1.2761079464513816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>100435.8564646922</v>
+      </c>
+      <c r="C46">
+        <v>102966.9313095398</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>203402.78777423198</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-1.5287610933361754E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>1.2565993046570616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47">
+        <v>103982.51743112379</v>
+      </c>
+      <c r="C47">
+        <v>106141.55430994324</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>210124.07174106705</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>3.3044207704249311E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>1.2981226330811646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>101947.5772910005</v>
+      </c>
+      <c r="C48">
+        <v>104924.19337725521</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>206871.77066825572</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>-1.5478003285692534E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>1.2780302867011026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>90115.293814056058</v>
+      </c>
+      <c r="C49">
+        <v>104137.92399199255</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>194253.2178060486</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>-6.099697808669368E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>1.2000743013090647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="5" customFormat="1">
+      <c r="A50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="5">
+        <v>100112.49624826681</v>
+      </c>
+      <c r="C50" s="5">
+        <v>111437.9664372211</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>211550.4626854879</v>
+      </c>
+      <c r="E50" s="5">
+        <f>D50-10000</f>
+        <v>201550.4626854879</v>
+      </c>
+      <c r="F50" s="5">
+        <f>(E50-D49)/D49</f>
+        <v>3.756563192031756E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>1.2451558507890732</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1.2451558507890732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51">
+        <v>100748.10073012349</v>
+      </c>
+      <c r="C51">
+        <v>112048.1753512891</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>212796.27608141259</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>5.8889655929367669E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>1.252488530752214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52">
+        <v>102589.2784231143</v>
+      </c>
+      <c r="C52">
+        <v>112847.09455755471</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>215436.37298066902</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>1.240668750352741E-2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>1.2680277645550089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53">
+        <v>105319.906369348</v>
+      </c>
+      <c r="C53">
+        <v>114166.48194752021</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>219486.38831686822</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.8799125143842833E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>1.2918655771867458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54">
+        <v>104610.72850639081</v>
+      </c>
+      <c r="C54">
+        <v>112869.00831905217</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>217479.73682544299</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>-9.1424871802449504E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1.2800547127087163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55">
+        <v>104473.6373951624</v>
+      </c>
+      <c r="C55">
+        <v>113731.08272188052</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>218204.72011704292</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>3.3335670816165559E-3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>1.2843218609616702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="5" customFormat="1">
+      <c r="A56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="5">
+        <v>108098.5013910313</v>
+      </c>
+      <c r="C56" s="5">
+        <v>116357.62641926893</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>224456.12781030021</v>
+      </c>
+      <c r="E56" s="5">
+        <f>D56-10000</f>
+        <v>214456.12781030021</v>
+      </c>
+      <c r="F56" s="5">
+        <f>(E56-D55)/D55</f>
+        <v>-1.7179244815290876E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>1.2622581812905798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>113500.7726791655</v>
+      </c>
+      <c r="C57">
+        <v>118602.21841915557</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>232102.99109832107</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>3.4068409548986031E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>1.3052613099673456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>113296.1784462151</v>
+      </c>
+      <c r="C58">
+        <v>118214.47536421022</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>231510.65381042531</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>-2.5520450429905922E-3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>1.3019302243114361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59">
+        <v>112389.56812478681</v>
+      </c>
+      <c r="C59">
+        <v>118663.48544708545</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>231053.05357187224</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>-1.9765839326244742E-3</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>1.2993568499486641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <v>110978.8259223124</v>
+      </c>
+      <c r="C60">
+        <v>118466.02027410813</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>229444.84619642055</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>-6.9603381153819487E-3</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>1.2903128869404836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61">
+        <v>111922.6832543489</v>
+      </c>
+      <c r="C61">
+        <v>118986.63554642709</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>230909.31880077597</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>6.3826781408798192E-3</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>1.2985485387988542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="5" customFormat="1">
+      <c r="A62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="5">
+        <v>117722.7773576988</v>
+      </c>
+      <c r="C62" s="5">
+        <v>124660.91325271119</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="0"/>
+        <v>242383.69061041001</v>
+      </c>
+      <c r="E62" s="5">
+        <f>D62-10000</f>
+        <v>232383.69061041001</v>
+      </c>
+      <c r="F62" s="5">
+        <f>(E62-D61)/D61</f>
+        <v>6.3850684645000832E-3</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>1.3068398601235616</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1.3068398601235616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63">
+        <v>119934.182771452</v>
+      </c>
+      <c r="C63">
+        <v>123752.42080141672</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>243686.60357286874</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>5.3754151493342209E-3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>1.3138646669054235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64">
+        <v>121751.8287371264</v>
+      </c>
+      <c r="C64">
+        <v>128044.72380656663</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>249796.55254369305</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>2.5072978494680643E-2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>1.3468071674436639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>